--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Potts_James/Thomas_Potts_James.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Potts_James/Thomas_Potts_James.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Potts James est un botaniste américain, né le 1er septembre 1803 à Radnor en Pennsylvanie et mort le 22 février 1882.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’Isaac James et d’Henrietta née Potts. Il se marie avec Isabella Batchelder en 1851. Il travaille avec son frère dans une industrie de médicaments à Philadelphie à partir de 1831 et ce durant 35 ans. En 1866, il se retire à Cambridge et consacre le reste de sa vie à l’étude des mousses. James réalise l’étude des spécimens rapportés par diverses expéditions. Il collabore avec Philipp Wilhelm Schimper (1808-1880) et avec Charles Léo Lesquereux (1806-1889). Asa Gray (1810-1888) persuade James et Lesquereux de poursuivre le travail commencé par William Starling Sullivant (1803-1873) sur les mousses d’Amérique du Nord mais James meurt avant qu’il soit terminé. C’est Sereno Watson (1826-1892) qui en assure la parution en 1884.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.
 Biographie de l’Harvard University Herbaria (en anglais)</t>
